--- a/non_educ_var_list.xlsx
+++ b/non_educ_var_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9FFE89C2-C098-5E4A-BF17-7FF4FB27A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DD6915E-A9A0-7441-8585-51B19E9E873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="non_educ_var_list" sheetId="1" r:id="rId1"/>
     <sheet name="Politik dan Keamanan" sheetId="2" r:id="rId2"/>
+    <sheet name="Indeks Pembangunan Manusia" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">non_educ_var_list!$A$1:$C$1337</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1387">
   <si>
     <t>var_id</t>
   </si>
@@ -5033,7 +5034,7 @@
   <dimension ref="A1:C1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C998"/>
+      <selection sqref="A1:C748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13104,7 +13105,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>4</v>
       </c>
@@ -13126,7 +13127,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>5</v>
       </c>
@@ -13137,7 +13138,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>6</v>
       </c>
@@ -13148,7 +13149,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>7</v>
       </c>
@@ -13159,7 +13160,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>202</v>
       </c>
@@ -13170,7 +13171,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>293</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>413</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>414</v>
       </c>
@@ -13203,7 +13204,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>415</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>416</v>
       </c>
@@ -13225,7 +13226,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>417</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>418</v>
       </c>
@@ -13247,7 +13248,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>494</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>1505</v>
       </c>
@@ -15491,7 +15492,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>101</v>
       </c>
@@ -15502,7 +15503,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>297</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>299</v>
       </c>
@@ -15524,7 +15525,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>592</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>594</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>595</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>597</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>598</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>599</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>601</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>602</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>604</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>605</v>
       </c>
@@ -15634,7 +15635,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>607</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>610</v>
       </c>
@@ -15656,7 +15657,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>611</v>
       </c>
@@ -15667,7 +15668,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>613</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>615</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>617</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>627</v>
       </c>
@@ -15711,7 +15712,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>628</v>
       </c>
@@ -15722,7 +15723,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>630</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>635</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>637</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>638</v>
       </c>
@@ -15766,7 +15767,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1187</v>
       </c>
@@ -15777,7 +15778,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1191</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1240</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1252</v>
       </c>
@@ -15810,7 +15811,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1253</v>
       </c>
@@ -15821,7 +15822,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1306</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1308</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1309</v>
       </c>
@@ -15854,7 +15855,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1310</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1311</v>
       </c>
@@ -15876,7 +15877,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1312</v>
       </c>
@@ -15887,7 +15888,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1313</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1314</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1499</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1501</v>
       </c>
@@ -15931,7 +15932,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1504</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1823</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>2159</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>2160</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>2161</v>
       </c>
@@ -15986,7 +15987,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>2162</v>
       </c>
@@ -15997,7 +15998,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>2163</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>2164</v>
       </c>
@@ -19752,7 +19753,7 @@
   <autoFilter ref="A1:C1337">
     <filterColumn colId="2">
       <filters>
-        <filter val="Politik dan Keamanan"/>
+        <filter val="Indeks Pembangunan Manusia"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19764,8 +19765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20287,6 +20288,9 @@
       <c r="C37" t="s">
         <v>977</v>
       </c>
+      <c r="D37" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -20298,6 +20302,9 @@
       <c r="C38" t="s">
         <v>977</v>
       </c>
+      <c r="D38" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -20309,6 +20316,9 @@
       <c r="C39" t="s">
         <v>977</v>
       </c>
+      <c r="D39" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -20320,6 +20330,9 @@
       <c r="C40" t="s">
         <v>977</v>
       </c>
+      <c r="D40" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -20331,6 +20344,9 @@
       <c r="C41" t="s">
         <v>977</v>
       </c>
+      <c r="D41" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -20342,6 +20358,9 @@
       <c r="C42" t="s">
         <v>977</v>
       </c>
+      <c r="D42" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -20353,6 +20372,9 @@
       <c r="C43" t="s">
         <v>977</v>
       </c>
+      <c r="D43" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -20364,6 +20386,9 @@
       <c r="C44" t="s">
         <v>977</v>
       </c>
+      <c r="D44" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -20375,6 +20400,9 @@
       <c r="C45" t="s">
         <v>977</v>
       </c>
+      <c r="D45" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -20386,6 +20414,9 @@
       <c r="C46" t="s">
         <v>977</v>
       </c>
+      <c r="D46" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -20397,6 +20428,9 @@
       <c r="C47" t="s">
         <v>977</v>
       </c>
+      <c r="D47" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -20408,8 +20442,11 @@
       <c r="C48" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2164</v>
       </c>
@@ -20418,6 +20455,200 @@
       </c>
       <c r="C49" t="s">
         <v>977</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>413</v>
+      </c>
+      <c r="B9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>417</v>
+      </c>
+      <c r="B13" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>494</v>
+      </c>
+      <c r="B15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1505</v>
+      </c>
+      <c r="B16" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/non_educ_var_list.xlsx
+++ b/non_educ_var_list.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DD6915E-A9A0-7441-8585-51B19E9E873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BDF0F6-C5AD-5245-B5A8-67093344D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="non_educ_var_list" sheetId="1" r:id="rId1"/>
-    <sheet name="Politik dan Keamanan" sheetId="2" r:id="rId2"/>
-    <sheet name="Indeks Pembangunan Manusia" sheetId="3" r:id="rId3"/>
+    <sheet name="Pendidikan" sheetId="4" r:id="rId2"/>
+    <sheet name="Politik dan Keamanan" sheetId="2" r:id="rId3"/>
+    <sheet name="Indeks Pembangunan Manusia" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">non_educ_var_list!$A$1:$C$1337</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1463">
   <si>
     <t>var_id</t>
   </si>
@@ -4187,12 +4188,240 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>open?</t>
+  </si>
+  <si>
+    <t>dashboard?</t>
+  </si>
+  <si>
+    <t>Persentase Penduduk Buta Huruf</t>
+  </si>
+  <si>
+    <t>Jumlah Desa yang Memiliki Fasilitas Sekolah Menurut Provinsi dan Tingkat Pendidikan</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Sekolah ( A P S )</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar ( A P K )</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Murni ( A P M )</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMA/SMK/MA/ Sederajat Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMA/SMK/MA/ Sederajat Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMA/SMK/MA/ Sederajat Menurut Kelompok Pendapatan</t>
+  </si>
+  <si>
+    <t>Proporsi Anak Kelas 4 SD yang Mencapai Standar Kemampuan Minimum Dalam Membaca dan Matematika</t>
+  </si>
+  <si>
+    <t>Persentase SD/MI berakreditasi minimal B dan Persentase SMP/MTS berakreditasi minimal B</t>
+  </si>
+  <si>
+    <t>Hasil Akreditasi Menurut Jenjang Sekolah dan Peringkat Akreditasi</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SD/MI/Sederajat Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SD/MI/Sederajat Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SD/MI/Sederajat Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMP/MTS/Sederajat Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMP/MTS/Sederajat Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) SMP/MTS/Sederajat Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Rata-Rata Lama Sekolah Penduduk Umur ‚â• 15 Tahun Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Rata-Rata Lama Sekolah Penduduk Umur ‚â• 15 Tahun Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Rata-Rata Lama Sekolah Penduduk Umur ‚â• 15 Tahun Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Rata-Rata Lama Sekolah Penduduk Umur ‚â• 15 Tahun Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Anak Yang Mengikuti Pendidikan Anak Usia Dini (PAUD) Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Anak Yang Mengikuti Pendidikan Anak Usia Dini (PAUD) Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Anak Yang Mengikuti Pendidikan Anak Usia Dini (PAUD) Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Anak Yang Mengikuti Pendidikan Anak Usia Dini (PAUD) Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Perguruan Tinggi (PT) Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Perguruan Tinggi (PT) Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Perguruan Tinggi (PT) Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Partisipasi Kasar (APK) Perguruan Tinggi (PT) Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-59 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-24 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-24 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-24 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Proporsi Remaja Dan Dewasa Usia 15-24 Tahun Dengan Keterampilan Teknologi Informasi Dan Komputer (TIK) Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Murni (APM) Perempuan/Laki-Laki Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Murni (APM) Perempuan/Laki-Laki Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Kasar (APK) Perempuan/Laki-Laki di Tingkat Perguruan Tinggi Menurut Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Berumur 15 Tahun Ke Atas Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Berumur 15 Tahun Ke Atas Menurut Kelompok Pendapatan</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Berumur 15 Tahun Ke Atas Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Berumur 15 Tahun Ke Atas Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-24 Tahun Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-24 Tahun Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-24 Tahun Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-24 Tahun Menurut Kelompok Pendapatan</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-59 Tahun Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-59 Tahun Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-59 Tahun Menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Melek Huruf Penduduk Umur 15-59 Tahun Menurut Kelompok Pendapatan</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Kasar (APK) Perempuan/Laki-Laki di Tingkat Perguruan Tinggi Menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Kasar (APK) Perempuan/Laki-Laki di Tingkat Perguruan Tinggi Menurut Provinsi</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Murni (APM) Perempuan/Laki-Laki Menurut Kelompok Pendapatan</t>
+  </si>
+  <si>
+    <t>Rasio Angka Partisipasi Murni (APM) Perempuan/Laki-Laki Menurut Kelompok Pendapatan (Pengeluaran)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporsi Sekolah dengan Akses Listrik </t>
+  </si>
+  <si>
+    <t>Proporsi Sekolah dengan Akses Komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporsi Sekolah dengan Akses Fasilitas Sumber Air Layak </t>
+  </si>
+  <si>
+    <t>Proporsi Sekolah dengan Akses Fasilitas Toilet Terpisah</t>
+  </si>
+  <si>
+    <t>Persentase Guru TK, SD, SMP, SMA, dan SLB Bersertifikasi Pendidik, Persentase Guru Berkualifikasi Minimal S1 pada Satuan Tingkat Pendidikan</t>
+  </si>
+  <si>
+    <t>Tingkat Penyelesaian Pendidikan Menurut Jenjang Pendidikan dan Provinsi</t>
+  </si>
+  <si>
+    <t>Tingkat Penyelesaian Pendidikan Menurut Jenjang Pendidikan dan Wilayah</t>
+  </si>
+  <si>
+    <t>Tingkat Penyelesaian Pendidikan Menurut Jenjang Pendidikan dan Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tingkat Penyelesaian Pendidikan Menurut Jenjang Pendidikan dan Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Angka Anak Tidak Sekolah Menurut Jenjang Pendidikan dan Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Angka Anak Tidak Sekolah Menurut Jenjang Pendidikan dan Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Angka Anak Tidak Sekolah Menurut Jenjang Pendidikan dan Kelompok Pengeluaran</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi dalam pembelajaran yang teroganisir (satu tahun sebelum usia sekolah dasar) menurut provinsi</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi dalam pembelajaran yang teroganisir (satu tahun sebelum usia sekolah dasar) menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi dalam pembelajaran yang teroganisir (satu tahun sebelum usia sekolah dasar) menurut Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi remaja dan dewasa dalam pendidikan dan pelatihan formal dan non formal dalam 12 bulan terakhir, menurut Daerah Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi remaja dan dewasa dalam pendidikan dan pelatihan formal dan non formal dalam 12 bulan terakhir, menurut jenis kelamin</t>
+  </si>
+  <si>
+    <t>Tingkat partisipasi remaja dan dewasa dalam pendidikan dan pelatihan formal dan non formal dalam 12 bulan terakhir, menurut Kelompok Pengeluaran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5029,7 +5258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C1337"/>
   <sheetViews>
@@ -19750,7 +19979,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1337">
+  <autoFilter ref="A1:C1337" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="Indeks Pembangunan Manusia"/>
@@ -19762,7 +19991,859 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED44FBB-25C3-334C-96D7-6E93137A5589}">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1339</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1421</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1423</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1424</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1425</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1426</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1427</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1428</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1430</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1431</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1432</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1440</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1441</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1442</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1444</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1446</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1447</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1448</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1450</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1451</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1453</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1454</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1455</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1456</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1457</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1460</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1461</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1462</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1463</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1464</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1465</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1466</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1467</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1468</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1469</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1526</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1527</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1607</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1608</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1794</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1796</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1797</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1798</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1799</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1980</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1981</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1982</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1983</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1984</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1986</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1988</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1990</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1992</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1994</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1996</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1998</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -20465,11 +21546,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/non_educ_var_list.xlsx
+++ b/non_educ_var_list.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BDF0F6-C5AD-5245-B5A8-67093344D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A4F5CE-B810-0044-A13D-661C64575C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="non_educ_var_list" sheetId="1" r:id="rId1"/>
-    <sheet name="Pendidikan" sheetId="4" r:id="rId2"/>
-    <sheet name="Politik dan Keamanan" sheetId="2" r:id="rId3"/>
-    <sheet name="Indeks Pembangunan Manusia" sheetId="3" r:id="rId4"/>
+    <sheet name="Ekspor-Impor" sheetId="5" r:id="rId2"/>
+    <sheet name="Pendidikan" sheetId="4" r:id="rId3"/>
+    <sheet name="Politik dan Keamanan" sheetId="2" r:id="rId4"/>
+    <sheet name="Indeks Pembangunan Manusia" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">non_educ_var_list!$A$1:$C$1337</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="1463">
   <si>
     <t>var_id</t>
   </si>
@@ -4963,7 +4964,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5251,7 +5252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5263,7 +5264,7 @@
   <dimension ref="A1:C1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C748"/>
+      <selection activeCell="B305" sqref="A1:C1337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8461,7 +8462,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>196</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>203</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>204</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>336</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>497</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>498</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>719</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>1261</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1492</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1493</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>1494</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1495</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1753</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1754</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1837</v>
       </c>
@@ -8626,7 +8627,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1838</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1979</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2172</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2173</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3</v>
       </c>
@@ -13345,7 +13346,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>4</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>5</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>6</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>7</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>202</v>
       </c>
@@ -13400,7 +13401,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>293</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>413</v>
       </c>
@@ -13422,7 +13423,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>414</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>415</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>416</v>
       </c>
@@ -13455,7 +13456,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>417</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>418</v>
       </c>
@@ -13477,7 +13478,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>494</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>1505</v>
       </c>
@@ -19982,7 +19983,7 @@
   <autoFilter ref="A1:C1337" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Indeks Pembangunan Manusia"/>
+        <filter val="Ekspor-Impor"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19991,10 +19992,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E702C6CF-006B-1147-A1E0-634C9B489DE9}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>719</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1492</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1493</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1494</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1495</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1753</v>
+      </c>
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1754</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1837</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1838</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1979</v>
+      </c>
+      <c r="B18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED44FBB-25C3-334C-96D7-6E93137A5589}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -20842,7 +21081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -21546,17 +21785,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21566,8 +21805,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -21577,8 +21819,11 @@
       <c r="C2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -21588,8 +21833,11 @@
       <c r="C3" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -21599,8 +21847,11 @@
       <c r="C4" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -21610,8 +21861,11 @@
       <c r="C5" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -21621,8 +21875,11 @@
       <c r="C6" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>202</v>
       </c>
@@ -21632,8 +21889,11 @@
       <c r="C7" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>293</v>
       </c>
@@ -21643,8 +21903,11 @@
       <c r="C8" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>413</v>
       </c>
@@ -21654,8 +21917,11 @@
       <c r="C9" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>414</v>
       </c>
@@ -21665,8 +21931,11 @@
       <c r="C10" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>415</v>
       </c>
@@ -21676,8 +21945,11 @@
       <c r="C11" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>416</v>
       </c>
@@ -21687,8 +21959,11 @@
       <c r="C12" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>417</v>
       </c>
@@ -21698,8 +21973,11 @@
       <c r="C13" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>418</v>
       </c>
@@ -21709,8 +21987,11 @@
       <c r="C14" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>494</v>
       </c>
@@ -21720,8 +22001,11 @@
       <c r="C15" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1505</v>
       </c>
@@ -21730,6 +22014,9 @@
       </c>
       <c r="C16" t="s">
         <v>756</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
